--- a/500all/speech_level/speeches_CHRG-114hhrg95451.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95451.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400419</t>
   </si>
   <si>
-    <t>Greg Walden</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walden. We will call to order the subcommittee on Communications and Technology. And I certainly welcome our witness, Mr. Wilkins, from the Federal Communications Commission. We are honored to have you with us today.    We are here today to talk about the FCC's fiscal year 2016 budget request. Today, as we commence a series of hearings into the agency's reauthorization, I hope to start with the basics and take a close look at the Federal Communication Commission's budget request for fiscal year 2016. This is similar to the hearing we had last year on the FCC's budget request, and I believe fully, as the oversight committee, we need to always take this action.    This year is a request for $530 million in spending authority that, if approved, would be the highest spending authority in the history of the agency. When the FCC was last formally reauthorized in 1990, its appropriated budget was a little shy of $117 million.    Much has changed since the last reauthorization of the commission. The industries and markets, certainly, that the commission overseas have, without question, undergone dramatic changes and continue to evolve at a rapid pace. But in the intervening years the FCC has struggled to reflect the evolution of technology that has brought about the integration of voice, video, and data services and the significant shifts in consumer consumption patterns that have resulted.    On the contrary, because it is structured in much the same way as its governing legislation, the Communications Act of 1934, the agency continues to reflect a regulatory scheme predicated on separate titles for specific network technologies and services. Now, this siloed scheme is out of touch with the convergence of technologies in the modern digital era and deserves reform. Nowhere is the Communications Act's failure of imagination more evident than in the FCC's decision to reclassify broadband service under rules developed to regulate the telegraph's heyday, by restructuring a regulatory scheme that had been going the way of the single-use copper line telephone network it was intended to govern, three FCC commissioners repudiated years of light touch regulation of the Internet under both Republican and Democratic administrations.    Now, all this is something some of have differing opinions on in this subcommittee. Our purpose today is not to delve into the issues of net neutrality, but rather to get into the issues of the way the agency has operated and the budget they propose.    The FCC has requested an increase in its budget to $505 million, including $388 million in budget authority from regulatory fee collections, and $117 million from auction funds. That is an increase of $59 million from the fiscal year 2015 appropriation. Specific items noted in the request includes the usual pay raises for personnel, but also includes funds for the implementation of the public safety answering points do-not-call registry, as required by the Middle Class Tax Relief and Job Creation Act of 2012, $3 million in costs for the National Broadband Map that the FCC inherited from NTIA when it ran out of stimulus funds to pay for it, a $5.8 million increase in recurring and a $11.7 million one-time increase in IT costs, $51 million in additional funds as the agency prepares to move or restack as their building lease expiration date approaches.    One component of the request that resonates in particular, and is in addition to the $59 million increase in funding, is a request for a $25 million transfer from the Universal Service Fund to pay the FCC's costs related to administration of the fund, raising the total increase to $84 million.    In the past, Congress funded the FCC's Office of Inspector General with a transfer of USF funds for the purpose of bolstering audits and investigations to address waste, fraud, and abuse in the fund following a GAO report, and those funds have been expended by the Office of Inspector General over the last several years. The request for $25 million is not for audits and investigations by the Office of Inspector General which, based on our last hearing, appears to have a rocky relationship with the chairman's office, but to reimburse the commission for the costs of performing the core function of implementing section 254 of the Communications Act. This is a disturbing proposal, I would tell you from my perspective. Mr. Wilkins states in his testimony that recovering these costs from the fund will relieve the burden on companies with no relationship to USF that pay fees to the commission. However, this realignment, as it is called, would create a separate funding stream for the agency that comes directly out of the pockets of consumers to implement and support a subsidy program the size of which is determined by the FCC and that has become so large and burdensome that it appears that it has outgrown the FCC's capacity for adequate oversight. It is even more disturbing when we recognize the fact that the Universal Service Administrative Company, USAC, an independent organization designated to manage the fund, already draws in excess of $100 million a year from the fund for its administration and oversight, and that the FCC's Office of Inspector General dedicates a portion of its funding to USF audits and investigations. According to its last report, USAC had 356 employees at a cost of $41.6 million.    We have more work to do, obviously. We welcome you here.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400124</t>
   </si>
   <si>
-    <t>Anna G. Eshoo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Eshoo. Thank you very much, Mr. Chairman. And good morning to you and to the Members, and to Mr. Wilkins. Welcome.    Today's topic is an important one; the FCC's budget, and we again welcome you back to the subcommittee, Mr. Wilkins.    I noticed that we have some very young people in the audience, and it occurred to me, I wonder if they know what we are talking about, if they are going to get this. So let us see if we can't keep it at an elemental level so that you understand what the committee is doing and why we are here today. It is very important because we are reviewing the proposed budget for a very important agency, the Federal Communications Commission.    I think the questions that I would like to see addressed anyway, because I think that they are very high import, are the following. And that is, will the agency have the necessary staff to carry out the world's first voluntary incentives spectrum auction, along with the IP transition, the review of pending mergers, and USF reform. These are all topline priorities, not only for the agency, but for this committee that has really shaped those policies that are carried out by the FCC. So I want to make sure that you have the resources to do that.    Will the agency be able to upgrade its IT infrastructure so that public comments on issues that are important to the American people can be filed without crashing your Web site. We saw what happened last year when there were over four million people that weighed in, voicing their support for enforceable net neutrality rules, and I would like to hear about that, what plan do you have and what is built into your budget to handle that. Will the agency remain on track to move its headquarters within the next 2 years? It is my understanding that by reducing the agency's footprint, that it is estimated that approximately $119 million of taxpayer dollars would be saved over 15 years. Now, that may not be the biggest number in the Federal Government, but I think anyone that is in the room would welcome having $119 million in their checking account over the next 15 years. Finally, will the FCC be able to develop and implement, and I think the chairman raised this, a do-not-call registry for telephone numbers used by 911 call centers. This is, again, another high priority of ours. Certainly, it has been mine, going back to the '90s. This provision was included in the Public Safety and Spectrum Act that we wrote in this committee in 2012 to ensure that automatic dialing or robo-call equipment does not tie up public safety lines, and unnecessarily divert critical emergency resources.    So I don't think these are small questions. They are important ones, and they track on a parallel track what the subcommittee's priorities and legislation has been, and especially when the agency, and this is my understanding, you can confirm it or deny it, that the agency is employing today the lowest number of full-time staff in 30 years. The agency has to have the tools and the resources to fulfill its mission, which means more successful spectrum auctions, like the nearly $45 billion, we are so proud of that, we really are very proud of that, that was raised earlier this year.    So whether it is protecting the public interest, promoting competition, enhancing innovation, these are all of the core of the mission of the FCC, and we look forward to hearing your testimony. Thank you for your service, and I look forward to your directing answers to us on the questions that I pose.    And with that, I yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you very much, Mr. Chairman. And, Mr. Wilkins, thanks for being with us today.    Oversight of the FCC serves as a critical function in maintaining accountability and transparency at the agency. Given the FCC's integral role in the information and communications technology marketplace, we have a responsibility to ensure that the processes at the commission are not wasteful, and reflect a capability to handle such significant parts of our Nation's economy. With that said, today's hearing represents a valuable opportunity to examine the commission's budget management and spending practices. Additionally, it is important for us to gain a better understanding of the challenges facing the agency that contribute to limiting the efficiency of its operations. As a Representative, I take great responsibility in ensuring that taxpayer dollars are spent wisely and effectively.    I look forward to discussing how Congress can work with the commission to ensure the advancement of the communications and technology economy in a fiscally-responsible manner.    And, Mr. Chairman, I yield back the balance of my time.</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. I want to thank the chairman and our Ranking Member Eshoo for having this hearing, and welcome Managing Director Wilkins.    We are here today to take a look at the Federal Communications Commission's fiscal year 2016 budget estimates. The FCC has broad jurisdiction. It oversees industries that account for approximately \\1/6\\ of the economy, and growing, but it also has been operating with the same budget for the better part of a decade now, and that does not account for the damage done by the sequester. So I should note that the FCC operates with fewer than 1,700 full-time employees, and I would say that that is certainly a small but efficient agency.    This year, the FCC asked for a $48 million increase in its budget authority over last year. The vast majority of that increase would pay to move the commission's headquarters to a new home. Overall, the move would create a smaller footprint for the agency, which will save $119 million over the next 15 years. Most of the remaining increase is to upgrade the commission's aging and creaky information technology infrastructure, which Ms. Eshoo mentioned, and that is an update that will net a savings of up to $10 million over the next 5 years. This is the same computer system that famously ground to a halt under the weight of 4,000,000 Americans writing in to voice their opinions about network neutrality, and 4,000,000 is certainly an eye-popping number when it comes to comments on a single proceeding. Modern computers, however, should be able to handle that load without blinking.    Now, together, these temporary budget increases will save the government nearly $130 million in the long run. Rejecting these costs out-of-hand would be penny wise but pound foolish, and fortunately, this subcommittee is practiced at reviewing these types of budget requests.    Today's hearing is actually different than other FCC budget hearings for a couple of reasons. First, it is the start of an effort to revive an FCC reauthorization process that has been dormant for 25 years, with the struggle Republicans have been facing to fund the Department of Homeland Security, however, I doubt the public wants us to create a brand new funding cliff. Second, the timing of today's budget hearing has raised some eyebrows, coming just days after the commission adopted new network neutrality protections. And now, that might be a coincidence, and I am hopeful it is because I think we should all agree that this committee has a responsibility to conduct a genuine oversight. We must make sure the FCC's dollars go as far as possible, but we should also ask whether the commission has sufficient funding to maintain its critical services for the public, and together, it is our job to make sure that we strike the right balance.    And I guess there is nobody else, so I will yield the balance of my time.</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Wilkins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilkins. Thank you, Chairman Walden, Ranking Member Eshoo, members of the subcommittee. I do appreciate the chance to be here today to talk to you about our budget request.    I submitted my written testimony. What I thought I would use my introductory time for is just to say a few words about each of the four slides that I submitted, because they provide some good context for our budget.    [Slide shown.]    The first slide. So just taking the historical perspective, the FCC does have a two-plus decades record of being a very good fiscal steward for the U.S. Government. So the left-hand side of the chart shows that we are now closing in on $100 billion of revenue raised for the Treasury since 1994, overwhelmingly from our auctions proceeds. Over that same time frame, we have spent less than $8 billion on agency operation. So for the U.S. Treasury, that means that 8 cents spent on the FCC generates $1, and of course, even that 8 cents doesn't come from general revenues, it comes either from retained auction proceeds for a very tiny portion of those auction revenues, or from our Section 9 reg. fees.    Now, our budget request for '16 is significant, and exactly as you said, Chairman Walden, it is for $84 million. I just want to make three points about that request. The first one is that the lion's share of that request, 71 percent, is from a management standpoint, these are unavoidable costs; these are not costs that management is, for example, seeking as a new initiative. The bulk of it is for the move. Our current lease expires in October 2017, and we do have to spend some money to reap the long-term benefits of lower lease costs. We are requesting $21 million for IT. The bulk of that is to finish the job that we started to truly transform and modernize our IT infrastructure. It is by far our most important management initiative. It will bring benefits and costs in efficiency and in operations. And then the third point, these are the only things we are requesting more funds for. In the last several years, we have asked for more money from more people, for example. We are not doing that. We heard the message and, in fact, over the last year we have had a chance to look at our workforce. We think we can do the job with the people we have if we can upgrade the IT. So it is a big request, but it is really just for these things.    Now, to put that budget request in context, for the last 6 fiscal years, on the left-hand side, the FCC has been essentially flat. Our auctions funds was at $85 million for 9 years. It has gone up 2 of the last 3 years, specifically for the incentive auctions. We appreciate that, and that work is going well. In our non-auctions area though, we have been actually flat in nominal terms. We had a very small increase from '11 to '12 that was more than offset by sequestration, and in real terms, our purchasing power has gone down. So we are mainly a people-centered agency. Federal pay increase alone increases our cost by a couple of million dollars a year. Our rent goes up a little bit every year. So to put that in context, fiscal year 2015, our flat budget was paired up against almost $7 million of increased costs just for our people and our rent and other contracts. That is about 40 to 50 people. In a given year, the FCC loses about 100, 120 people, just to retirement and other attrition. So what the flat line really means is that for every two people that leave the commission right now, we can only replace one. And the right-hand side shows the results of that. As Member Eshoo said, our staffing is at its lowest, again, in '15, and our current management plan is for it to go even lower in 2016; more than 100 lower than 6 years ago, and more than 200 lower from the 20-year average.    Finally, IT we think really is the solution to this. There is no question that we can use IT to do our work more efficiently, more transparently, and to support all the things that Congress wants us to do. Over the last year, we have put in place a very strong plan. We have actually started to move it down the field. Three main areas, infrastructure costs. As of today, we still have over 200 very expensive large servers sitting in very expensive downtown real estate, being serviced by very expensive direct contractors. Using some reprogramming money we got last year, we have just finalized a contract to move those to an off-site facility. It is the first step in moving to a truly low-cost, secure cloud, efficient environment. When you do that, you can improve the way you work with data. So at the FCC, we have over 100,000 data objects, including multiple definitions of the same basic thing that, to a business person, seems ridiculous, 40 terabytes of data, very expensive. When we have the infrastructure upgraded, we can then essentially put all that data into a similar shared environment that we can use much more efficiently. And that then gets to the third piece; mission systems. That is where we really saved the most money. We right now do most of our software development on kind of a custom model. Everything is a, you know, it is a custom renovation, if you will. We want to get to a world where it is, you know, it is IKEA, you know, you just have the pieces, it is pretty easy to build. When the infrastructure and the data are modernized, we think that we can cut our development costs by 50 to 75 percent and the times to be shorter. So this is a thing that, from a management perspective, we just want to plant our flag. We want to be able to do this, and it will allow us to do a lot of things more efficiently, and better do what Congress needs us to do.    And with that, I am happy to take any questions. Thank you again.</t>
   </si>
   <si>
@@ -505,9 +490,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you. Mr. Wilkins, welcome. It is good to have you back.    Ranking Member Eshoo talked about the 9911 issue, but Commissioner O'Reilly in a blog post said that it is a simple programming change. And the first question--and this is for, obviously, the facility which you are operating out of. Is that your understanding, and did you give him that information as far as the headquarters itself?</t>
   </si>
   <si>
@@ -583,9 +565,6 @@
     <t>412221</t>
   </si>
   <si>
-    <t>Yvette D. Clarke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Clarke. Thank you, Mr. Chairman. And I thank our ranking member. I thank Mr. Wilkins for coming today to share information with us.    I am a new member to this committee, and wanted to just ask a couple of questions; one is somewhat parochial. I was visited by my local regional broadcasters just recently, and they raised a concern about regional office staffing, particularly in the New York region, some concerns about radio piracy, and I was wondering whether you have considered looking at these regional offices and the staffing levels, and the concerns that these regions have, whether you would be addressing that in this budget, and whether there is a line item specific to those regional offices?</t>
   </si>
   <si>
@@ -628,9 +607,6 @@
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you, Mr. Chairman. And good morning to you, Mr. Wilkins.    The FCC makes a one-time request of $51 million for restacking, and is this similar--for move or restacking. Are a move or restacking equivalent, and which of the two would be less costly?</t>
   </si>
   <si>
@@ -673,9 +649,6 @@
     <t>412563</t>
   </si>
   <si>
-    <t>Chris Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. See if this is working. It wasn't last week. Thank you, Mr. Wilkins.    I will begin one real quick question on the rural broadband map.</t>
   </si>
   <si>
@@ -817,9 +790,6 @@
     <t>412555</t>
   </si>
   <si>
-    <t>Kevin Cramer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cramer. Thank you, Mr. Chairman. Thank you, Mr. Wilkins, for being here. Thank you for your--you are very knowledgeable and it is great to have a witness that is both knowledgeable and forthcoming.    I want to just follow up a little bit on where I think Mr. Lance was going, and maybe expand it a little, and Ms. Eshoo as well. I appreciated your answer to her with regard to, you know, contractors or, you know, former employees coming back as contractors, and that was a good answer. But I am missing detail I think when I look at the budget request, and I would just say it could be very helpful for us, and give us sense of confidence if we could get more details about not just the $44.1 million, for the moving and stacking, which I think is a large amount, and I wish I had a local moving company to bid on it, but the $32 million in addition to that is pretty vague, to say the least, and I would just really want to encourage you, first of all, if you can explain that a little bit, but then provide us some detail, again, you know, before the chairman and the commissioners visit here.</t>
   </si>
   <si>
@@ -877,9 +847,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you very much, Mr. Chairman. And, Mr. Wilkins, thank you for being here today.    You have requested $25 million out of the USF fund to reimburse the agency for costs of oversight administration of the fund, with $10 million of this amount going to the creation of the Joint USF Antifraud Taskforce. Do you expect the fund for USF oversight administration to be a one-time disbursement, or do you expect this to be an ongoing effort?</t>
   </si>
   <si>
@@ -991,9 +958,6 @@
     <t>412431</t>
   </si>
   <si>
-    <t>Mike Pompeo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pompeo. Thank you, Mr. Chairman.    Mr. Wilkins, you said in your testimony, ``You are currently examining additional workforce restructuring at all FCC facilities.'' Can you tell me if that includes studying closing field offices?</t>
   </si>
   <si>
@@ -1115,9 +1079,6 @@
   </si>
   <si>
     <t>412278</t>
-  </si>
-  <si>
-    <t>Brett Guthrie</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Guthrie. Thank you.    You said replace an engineer with a lawyer. Aren't you both an engineer and a lawyer? So Mr. Pompeo has a good perspective.</t>
@@ -1612,11 +1573,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1638,11 +1597,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1662,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1690,11 +1645,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1714,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1742,11 +1693,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1766,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1794,11 +1741,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1818,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1846,11 +1789,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1870,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1898,11 +1837,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1922,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1950,11 +1885,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1974,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2002,11 +1933,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2026,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2054,11 +1981,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2078,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2106,11 +2029,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2130,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2158,11 +2077,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2182,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2210,11 +2125,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2234,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2262,11 +2173,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2286,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2314,11 +2221,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2338,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2366,11 +2269,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2390,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2418,11 +2317,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2442,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2470,11 +2365,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2494,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2522,11 +2413,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2546,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2574,11 +2461,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2598,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2626,11 +2509,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2650,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2678,11 +2557,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2702,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2730,11 +2605,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2754,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2782,11 +2653,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2806,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2834,11 +2701,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2858,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2886,11 +2749,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2910,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2938,11 +2797,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2962,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2990,11 +2845,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3014,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3042,11 +2893,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3066,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3094,11 +2941,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3118,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3146,11 +2989,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3170,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3198,11 +3037,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3222,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3248,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
-      </c>
-      <c r="G65" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3274,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3300,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3326,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3352,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3378,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3404,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3430,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3456,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
-      </c>
-      <c r="G73" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3482,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3508,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3534,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3560,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3586,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3612,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3638,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3664,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
-      </c>
-      <c r="G81" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3690,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3716,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3742,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3768,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
-      </c>
-      <c r="G85" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3794,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3820,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3846,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3872,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3898,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
-      </c>
-      <c r="G90" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3924,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3950,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
-      </c>
-      <c r="G92" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3976,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4002,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4028,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4054,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4080,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4106,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4132,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4158,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
-      </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4184,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4210,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4236,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4262,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4288,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4314,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4340,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4366,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4392,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4418,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4444,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4470,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4496,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4522,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4548,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4574,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4600,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
-      </c>
-      <c r="G117" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4626,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4652,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
-      </c>
-      <c r="G119" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4678,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4704,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
-      </c>
-      <c r="G121" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4730,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>15</v>
-      </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4756,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
-      </c>
-      <c r="G123" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4782,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4810,11 +4525,9 @@
       <c r="F125" t="s">
         <v>11</v>
       </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4834,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4862,11 +4573,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4886,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4912,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
-      </c>
-      <c r="G129" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4938,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4964,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
-      </c>
-      <c r="G131" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4990,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5016,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
-      </c>
-      <c r="G133" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5042,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5068,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
-      </c>
-      <c r="G135" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5094,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5120,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
-      </c>
-      <c r="G137" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5146,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
-      </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5172,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
-      </c>
-      <c r="G139" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5198,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5224,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
-      </c>
-      <c r="G141" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5250,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5276,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
-      </c>
-      <c r="G143" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5302,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
-      </c>
-      <c r="G144" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5328,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
-      </c>
-      <c r="G145" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5354,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>25</v>
-      </c>
-      <c r="G146" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5380,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
-      </c>
-      <c r="G147" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5406,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5432,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
-      </c>
-      <c r="G149" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5458,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
-      </c>
-      <c r="G150" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5484,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
-      </c>
-      <c r="G151" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5510,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>25</v>
-      </c>
-      <c r="G152" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5536,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
-      </c>
-      <c r="G153" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5562,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
-      </c>
-      <c r="G154" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5588,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
-      </c>
-      <c r="G155" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5614,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
-      </c>
-      <c r="G156" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5640,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
-      </c>
-      <c r="G157" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5666,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>25</v>
-      </c>
-      <c r="G158" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5694,11 +5341,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5718,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
-      </c>
-      <c r="G160" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5744,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>33</v>
-      </c>
-      <c r="G161" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5770,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
-      </c>
-      <c r="G162" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5796,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
-      </c>
-      <c r="G163" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5822,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
-      </c>
-      <c r="G164" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5848,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
-      </c>
-      <c r="G165" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5874,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
-      </c>
-      <c r="G166" t="s">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5902,11 +5533,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5926,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>162</v>
-      </c>
-      <c r="G168" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5952,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
-      </c>
-      <c r="G169" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5978,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>162</v>
-      </c>
-      <c r="G170" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6004,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>33</v>
-      </c>
-      <c r="G171" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6030,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>162</v>
-      </c>
-      <c r="G172" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6056,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
-      </c>
-      <c r="G173" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6082,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
+        <v>157</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
         <v>162</v>
-      </c>
-      <c r="G174" t="s">
-        <v>163</v>
-      </c>
-      <c r="H174" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6108,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
-      </c>
-      <c r="G175" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6134,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>162</v>
-      </c>
-      <c r="G176" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6160,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
-      </c>
-      <c r="G177" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6186,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>162</v>
-      </c>
-      <c r="G178" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6212,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
-      </c>
-      <c r="G179" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6238,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>162</v>
-      </c>
-      <c r="G180" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6264,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
-      </c>
-      <c r="G181" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6290,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>162</v>
-      </c>
-      <c r="G182" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6316,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>33</v>
-      </c>
-      <c r="G183" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6342,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>162</v>
-      </c>
-      <c r="G184" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6368,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
-      </c>
-      <c r="G185" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6394,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>162</v>
-      </c>
-      <c r="G186" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6420,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>33</v>
-      </c>
-      <c r="G187" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6446,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>162</v>
-      </c>
-      <c r="G188" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6472,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
-      </c>
-      <c r="G189" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6498,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>162</v>
-      </c>
-      <c r="G190" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6524,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
-      </c>
-      <c r="G191" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6550,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>162</v>
-      </c>
-      <c r="G192" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6576,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>33</v>
-      </c>
-      <c r="G193" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6602,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>162</v>
-      </c>
-      <c r="G194" t="s">
-        <v>163</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6628,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>25</v>
-      </c>
-      <c r="G195" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6654,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>188</v>
-      </c>
-      <c r="G196" t="s">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6680,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>33</v>
-      </c>
-      <c r="G197" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6706,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>188</v>
-      </c>
-      <c r="G198" t="s">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6732,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>33</v>
-      </c>
-      <c r="G199" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6758,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>188</v>
-      </c>
-      <c r="G200" t="s">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6784,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
-      </c>
-      <c r="G201" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6810,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
+        <v>182</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
         <v>188</v>
-      </c>
-      <c r="G202" t="s">
-        <v>189</v>
-      </c>
-      <c r="H202" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6836,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
-      </c>
-      <c r="G203" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6862,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>188</v>
-      </c>
-      <c r="G204" t="s">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6888,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
-      </c>
-      <c r="G205" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6914,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>188</v>
-      </c>
-      <c r="G206" t="s">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6940,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
-      </c>
-      <c r="G207" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6966,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>188</v>
-      </c>
-      <c r="G208" t="s">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6992,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>25</v>
-      </c>
-      <c r="G209" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7018,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>203</v>
-      </c>
-      <c r="G210" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7044,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
-      </c>
-      <c r="G211" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7070,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>203</v>
-      </c>
-      <c r="G212" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7096,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
-      </c>
-      <c r="G213" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7122,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>203</v>
-      </c>
-      <c r="G214" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7148,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>33</v>
-      </c>
-      <c r="G215" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7174,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
+        <v>196</v>
+      </c>
+      <c r="G216" t="s"/>
+      <c r="H216" t="s">
         <v>203</v>
-      </c>
-      <c r="G216" t="s">
-        <v>204</v>
-      </c>
-      <c r="H216" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7200,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>33</v>
-      </c>
-      <c r="G217" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7226,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>203</v>
-      </c>
-      <c r="G218" t="s">
+        <v>196</v>
+      </c>
+      <c r="G218" t="s"/>
+      <c r="H218" t="s">
         <v>204</v>
-      </c>
-      <c r="H218" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7252,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>33</v>
-      </c>
-      <c r="G219" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7278,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>203</v>
-      </c>
-      <c r="G220" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7304,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
-      </c>
-      <c r="G221" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7330,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>203</v>
-      </c>
-      <c r="G222" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7356,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>25</v>
-      </c>
-      <c r="G223" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7382,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>203</v>
-      </c>
-      <c r="G224" t="s">
-        <v>204</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7408,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>25</v>
-      </c>
-      <c r="G225" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7434,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>218</v>
-      </c>
-      <c r="G226" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7460,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
-      </c>
-      <c r="G227" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7486,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>218</v>
-      </c>
-      <c r="G228" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7512,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
-      </c>
-      <c r="G229" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7538,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>218</v>
-      </c>
-      <c r="G230" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7564,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
-      </c>
-      <c r="G231" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7590,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>218</v>
-      </c>
-      <c r="G232" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7616,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
-      </c>
-      <c r="G233" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7642,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
+        <v>210</v>
+      </c>
+      <c r="G234" t="s"/>
+      <c r="H234" t="s">
         <v>218</v>
-      </c>
-      <c r="G234" t="s">
-        <v>219</v>
-      </c>
-      <c r="H234" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7668,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>33</v>
-      </c>
-      <c r="G235" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7694,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>218</v>
-      </c>
-      <c r="G236" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7720,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
-      </c>
-      <c r="G237" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7746,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>218</v>
-      </c>
-      <c r="G238" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7772,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>33</v>
-      </c>
-      <c r="G239" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7798,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>218</v>
-      </c>
-      <c r="G240" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7824,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>33</v>
-      </c>
-      <c r="G241" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7850,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>218</v>
-      </c>
-      <c r="G242" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7876,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>33</v>
-      </c>
-      <c r="G243" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7902,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>218</v>
-      </c>
-      <c r="G244" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7928,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
-      </c>
-      <c r="G245" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7954,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>218</v>
-      </c>
-      <c r="G246" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7980,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>33</v>
-      </c>
-      <c r="G247" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8006,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>218</v>
-      </c>
-      <c r="G248" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8032,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
-      </c>
-      <c r="G249" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8058,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>218</v>
-      </c>
-      <c r="G250" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8084,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
-      </c>
-      <c r="G251" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8110,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>218</v>
-      </c>
-      <c r="G252" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8136,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>33</v>
-      </c>
-      <c r="G253" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8162,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>218</v>
-      </c>
-      <c r="G254" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8188,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>33</v>
-      </c>
-      <c r="G255" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8214,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>218</v>
-      </c>
-      <c r="G256" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8240,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>33</v>
-      </c>
-      <c r="G257" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8266,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>218</v>
-      </c>
-      <c r="G258" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8292,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>33</v>
-      </c>
-      <c r="G259" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8318,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>218</v>
-      </c>
-      <c r="G260" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8344,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>33</v>
-      </c>
-      <c r="G261" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8370,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>218</v>
-      </c>
-      <c r="G262" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8396,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
-      </c>
-      <c r="G263" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8422,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>218</v>
-      </c>
-      <c r="G264" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8448,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
-      </c>
-      <c r="G265" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8474,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>218</v>
-      </c>
-      <c r="G266" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8500,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>33</v>
-      </c>
-      <c r="G267" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8526,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>218</v>
-      </c>
-      <c r="G268" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8552,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>33</v>
-      </c>
-      <c r="G269" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8578,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>218</v>
-      </c>
-      <c r="G270" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8604,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>33</v>
-      </c>
-      <c r="G271" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8630,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>218</v>
-      </c>
-      <c r="G272" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8656,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
-      </c>
-      <c r="G273" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8682,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>218</v>
-      </c>
-      <c r="G274" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8708,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>25</v>
-      </c>
-      <c r="G275" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8734,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>266</v>
-      </c>
-      <c r="G276" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8760,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
-      </c>
-      <c r="G277" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8786,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>266</v>
-      </c>
-      <c r="G278" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8812,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>33</v>
-      </c>
-      <c r="G279" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8838,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>266</v>
-      </c>
-      <c r="G280" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8864,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>33</v>
-      </c>
-      <c r="G281" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8890,13 +8291,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>266</v>
-      </c>
-      <c r="G282" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8916,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>33</v>
-      </c>
-      <c r="G283" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8942,13 +8339,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
+        <v>257</v>
+      </c>
+      <c r="G284" t="s"/>
+      <c r="H284" t="s">
         <v>266</v>
-      </c>
-      <c r="G284" t="s">
-        <v>267</v>
-      </c>
-      <c r="H284" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8968,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
-      </c>
-      <c r="G285" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8994,13 +8387,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
+        <v>257</v>
+      </c>
+      <c r="G286" t="s"/>
+      <c r="H286" t="s">
         <v>266</v>
-      </c>
-      <c r="G286" t="s">
-        <v>267</v>
-      </c>
-      <c r="H286" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9020,13 +8411,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>33</v>
-      </c>
-      <c r="G287" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9046,13 +8435,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>266</v>
-      </c>
-      <c r="G288" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9072,13 +8459,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>33</v>
-      </c>
-      <c r="G289" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9098,13 +8483,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>266</v>
-      </c>
-      <c r="G290" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9124,13 +8507,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>33</v>
-      </c>
-      <c r="G291" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9150,13 +8531,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>266</v>
-      </c>
-      <c r="G292" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9176,13 +8555,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>33</v>
-      </c>
-      <c r="G293" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9202,13 +8579,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>266</v>
-      </c>
-      <c r="G294" t="s">
-        <v>267</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9228,13 +8603,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>25</v>
-      </c>
-      <c r="G295" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9254,13 +8627,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>286</v>
-      </c>
-      <c r="G296" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9280,13 +8651,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>33</v>
-      </c>
-      <c r="G297" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9306,13 +8675,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>286</v>
-      </c>
-      <c r="G298" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9332,13 +8699,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>33</v>
-      </c>
-      <c r="G299" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9358,13 +8723,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>286</v>
-      </c>
-      <c r="G300" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9384,13 +8747,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>33</v>
-      </c>
-      <c r="G301" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9410,13 +8771,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>286</v>
-      </c>
-      <c r="G302" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9436,13 +8795,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
-      </c>
-      <c r="G303" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9462,13 +8819,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>286</v>
-      </c>
-      <c r="G304" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9488,13 +8843,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>33</v>
-      </c>
-      <c r="G305" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9514,13 +8867,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>286</v>
-      </c>
-      <c r="G306" t="s">
+        <v>276</v>
+      </c>
+      <c r="G306" t="s"/>
+      <c r="H306" t="s">
         <v>287</v>
-      </c>
-      <c r="H306" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9540,13 +8891,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>33</v>
-      </c>
-      <c r="G307" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9566,13 +8915,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>286</v>
-      </c>
-      <c r="G308" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9592,13 +8939,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>33</v>
-      </c>
-      <c r="G309" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9618,13 +8963,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>286</v>
-      </c>
-      <c r="G310" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9644,13 +8987,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>33</v>
-      </c>
-      <c r="G311" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9670,13 +9011,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>286</v>
-      </c>
-      <c r="G312" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9696,13 +9035,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>33</v>
-      </c>
-      <c r="G313" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9722,13 +9059,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>286</v>
-      </c>
-      <c r="G314" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9748,13 +9083,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>33</v>
-      </c>
-      <c r="G315" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9774,13 +9107,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>286</v>
-      </c>
-      <c r="G316" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9800,13 +9131,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>33</v>
-      </c>
-      <c r="G317" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9826,13 +9155,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>286</v>
-      </c>
-      <c r="G318" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9852,13 +9179,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
-      </c>
-      <c r="G319" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9878,13 +9203,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>286</v>
-      </c>
-      <c r="G320" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9904,13 +9227,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>33</v>
-      </c>
-      <c r="G321" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9930,13 +9251,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>286</v>
-      </c>
-      <c r="G322" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9956,13 +9275,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>33</v>
-      </c>
-      <c r="G323" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9982,13 +9299,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>286</v>
-      </c>
-      <c r="G324" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10008,13 +9323,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>33</v>
-      </c>
-      <c r="G325" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10034,13 +9347,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>286</v>
-      </c>
-      <c r="G326" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10060,13 +9371,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>33</v>
-      </c>
-      <c r="G327" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10086,13 +9395,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>286</v>
-      </c>
-      <c r="G328" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10112,13 +9419,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>33</v>
-      </c>
-      <c r="G329" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10138,13 +9443,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>286</v>
-      </c>
-      <c r="G330" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10164,13 +9467,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>33</v>
-      </c>
-      <c r="G331" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10190,13 +9491,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>286</v>
-      </c>
-      <c r="G332" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10216,13 +9515,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>33</v>
-      </c>
-      <c r="G333" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10242,13 +9539,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>286</v>
-      </c>
-      <c r="G334" t="s">
-        <v>287</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10268,13 +9563,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>25</v>
-      </c>
-      <c r="G335" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10294,13 +9587,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>324</v>
-      </c>
-      <c r="G336" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10320,13 +9611,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>33</v>
-      </c>
-      <c r="G337" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10346,13 +9635,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>324</v>
-      </c>
-      <c r="G338" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10372,13 +9659,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>33</v>
-      </c>
-      <c r="G339" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10398,13 +9683,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>324</v>
-      </c>
-      <c r="G340" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10424,13 +9707,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>33</v>
-      </c>
-      <c r="G341" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10450,13 +9731,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>324</v>
-      </c>
-      <c r="G342" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10476,13 +9755,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>33</v>
-      </c>
-      <c r="G343" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10502,13 +9779,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>324</v>
-      </c>
-      <c r="G344" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10528,13 +9803,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>33</v>
-      </c>
-      <c r="G345" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10554,13 +9827,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
+        <v>313</v>
+      </c>
+      <c r="G346" t="s"/>
+      <c r="H346" t="s">
         <v>324</v>
-      </c>
-      <c r="G346" t="s">
-        <v>325</v>
-      </c>
-      <c r="H346" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10580,13 +9851,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>33</v>
-      </c>
-      <c r="G347" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10606,13 +9875,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>324</v>
-      </c>
-      <c r="G348" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10632,13 +9899,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>33</v>
-      </c>
-      <c r="G349" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10658,13 +9923,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>324</v>
-      </c>
-      <c r="G350" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10684,13 +9947,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>33</v>
-      </c>
-      <c r="G351" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10710,13 +9971,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>324</v>
-      </c>
-      <c r="G352" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10736,13 +9995,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>33</v>
-      </c>
-      <c r="G353" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10762,13 +10019,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>324</v>
-      </c>
-      <c r="G354" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10788,13 +10043,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>33</v>
-      </c>
-      <c r="G355" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10814,13 +10067,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>324</v>
-      </c>
-      <c r="G356" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10840,13 +10091,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>33</v>
-      </c>
-      <c r="G357" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10866,13 +10115,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>324</v>
-      </c>
-      <c r="G358" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10892,13 +10139,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>33</v>
-      </c>
-      <c r="G359" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10918,13 +10163,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>324</v>
-      </c>
-      <c r="G360" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -10944,13 +10187,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>33</v>
-      </c>
-      <c r="G361" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10970,13 +10211,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>324</v>
-      </c>
-      <c r="G362" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -10996,13 +10235,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
-      </c>
-      <c r="G363" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11022,13 +10259,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>324</v>
-      </c>
-      <c r="G364" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11048,13 +10283,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>33</v>
-      </c>
-      <c r="G365" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11074,13 +10307,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>324</v>
-      </c>
-      <c r="G366" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11100,13 +10331,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>33</v>
-      </c>
-      <c r="G367" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11126,13 +10355,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>324</v>
-      </c>
-      <c r="G368" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11152,13 +10379,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>33</v>
-      </c>
-      <c r="G369" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11178,13 +10403,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>324</v>
-      </c>
-      <c r="G370" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11204,13 +10427,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>33</v>
-      </c>
-      <c r="G371" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11230,13 +10451,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>324</v>
-      </c>
-      <c r="G372" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11256,13 +10475,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>33</v>
-      </c>
-      <c r="G373" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11282,13 +10499,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>324</v>
-      </c>
-      <c r="G374" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11308,13 +10523,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>33</v>
-      </c>
-      <c r="G375" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11334,13 +10547,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>324</v>
-      </c>
-      <c r="G376" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11360,13 +10571,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>33</v>
-      </c>
-      <c r="G377" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11386,13 +10595,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>324</v>
-      </c>
-      <c r="G378" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11412,13 +10619,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>33</v>
-      </c>
-      <c r="G379" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11438,13 +10643,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>324</v>
-      </c>
-      <c r="G380" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11464,13 +10667,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>25</v>
-      </c>
-      <c r="G381" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11490,13 +10691,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>366</v>
-      </c>
-      <c r="G382" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11516,13 +10715,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>324</v>
-      </c>
-      <c r="G383" t="s">
-        <v>325</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11542,13 +10739,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>366</v>
-      </c>
-      <c r="G384" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11568,13 +10763,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>33</v>
-      </c>
-      <c r="G385" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11594,13 +10787,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>366</v>
-      </c>
-      <c r="G386" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11620,13 +10811,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>33</v>
-      </c>
-      <c r="G387" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11646,13 +10835,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>366</v>
-      </c>
-      <c r="G388" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11672,13 +10859,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>33</v>
-      </c>
-      <c r="G389" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11698,13 +10883,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>366</v>
-      </c>
-      <c r="G390" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11724,13 +10907,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>33</v>
-      </c>
-      <c r="G391" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11750,13 +10931,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>366</v>
-      </c>
-      <c r="G392" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11776,13 +10955,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>33</v>
-      </c>
-      <c r="G393" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11802,13 +10979,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
+        <v>354</v>
+      </c>
+      <c r="G394" t="s"/>
+      <c r="H394" t="s">
         <v>366</v>
-      </c>
-      <c r="G394" t="s">
-        <v>367</v>
-      </c>
-      <c r="H394" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11828,13 +11003,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>33</v>
-      </c>
-      <c r="G395" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11854,13 +11027,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>366</v>
-      </c>
-      <c r="G396" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11880,13 +11051,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>33</v>
-      </c>
-      <c r="G397" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11906,13 +11075,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>366</v>
-      </c>
-      <c r="G398" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -11932,13 +11099,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>33</v>
-      </c>
-      <c r="G399" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11958,13 +11123,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>366</v>
-      </c>
-      <c r="G400" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11984,13 +11147,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>33</v>
-      </c>
-      <c r="G401" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12010,13 +11171,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>366</v>
-      </c>
-      <c r="G402" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12036,13 +11195,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>33</v>
-      </c>
-      <c r="G403" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12062,13 +11219,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>366</v>
-      </c>
-      <c r="G404" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12088,13 +11243,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>33</v>
-      </c>
-      <c r="G405" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12114,13 +11267,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>366</v>
-      </c>
-      <c r="G406" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12140,13 +11291,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>33</v>
-      </c>
-      <c r="G407" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12166,13 +11315,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>366</v>
-      </c>
-      <c r="G408" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12192,13 +11339,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>33</v>
-      </c>
-      <c r="G409" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12218,13 +11363,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
-        <v>366</v>
-      </c>
-      <c r="G410" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12244,13 +11387,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>33</v>
-      </c>
-      <c r="G411" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12270,13 +11411,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>366</v>
-      </c>
-      <c r="G412" t="s">
-        <v>367</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12298,11 +11437,9 @@
       <c r="F413" t="s">
         <v>11</v>
       </c>
-      <c r="G413" t="s">
-        <v>12</v>
-      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12322,13 +11459,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>15</v>
-      </c>
-      <c r="G414" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12348,13 +11483,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>33</v>
-      </c>
-      <c r="G415" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12374,13 +11507,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>15</v>
-      </c>
-      <c r="G416" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12402,11 +11533,9 @@
       <c r="F417" t="s">
         <v>11</v>
       </c>
-      <c r="G417" t="s">
-        <v>12</v>
-      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
